--- a/GitHub1_1.xlsx
+++ b/GitHub1_1.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadet\Desktop\01.Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F943B1F7-4F8D-4BB0-959F-69F81A10A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E109F-FDF7-4950-A8B3-829F6C5BE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B4D919F4-73FA-465C-B009-776608D10CEF}"/>
+    <workbookView xWindow="8676" yWindow="1284" windowWidth="14364" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,19 +26,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -70,14 +60,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -105,17 +91,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123154</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>507924</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>86758</xdr:rowOff>
+      <xdr:rowOff>115337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B2C853-3D3C-D733-9175-2545EA7964DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1B9586-AAB6-7D5A-E102-373D113C149C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -132,7 +118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="670560" y="228600"/>
-          <a:ext cx="8840434" cy="7401958"/>
+          <a:ext cx="8554644" cy="7430537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -145,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,7 +147,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -173,7 +159,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -190,7 +176,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -220,29 +206,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -272,23 +241,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB59170-1391-4600-AF6B-0F0BE01D554F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GitHub1_1.xlsx
+++ b/GitHub1_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadet\Desktop\01.Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E109F-FDF7-4950-A8B3-829F6C5BE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7258137-A182-4FE0-84D3-5D11801DE905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="1284" windowWidth="14364" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5004" yWindow="0" windowWidth="14364" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,16 +92,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>507924</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115337</xdr:rowOff>
+      <xdr:colOff>536503</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>115369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1B9586-AAB6-7D5A-E102-373D113C149C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D17845-78A7-3ACC-D4F7-7F07977BF43D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -118,7 +118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="670560" y="228600"/>
-          <a:ext cx="8554644" cy="7430537"/>
+          <a:ext cx="8583223" cy="7659169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
